--- a/data_excel/824.xlsx
+++ b/data_excel/824.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI_DATA\兩段問句\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>小瀚</t>
   </si>
@@ -91,28 +91,12 @@
   </si>
   <si>
     <t>=</t>
-  </si>
-  <si>
-    <t>一共</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>total</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>幾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,13 +116,17 @@
   </si>
   <si>
     <t>時間點</t>
+  </si>
+  <si>
+    <t>一共有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +141,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -162,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,12 +165,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -480,13 +491,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,11 +507,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
       </c>
       <c r="G1" t="s">
         <v>23</v>
@@ -517,13 +528,13 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -537,13 +548,13 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -557,13 +568,13 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -576,15 +587,6 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -640,13 +642,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
